--- a/inputs/lumped_mass.xlsx
+++ b/inputs/lumped_mass.xlsx
@@ -81,6 +81,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,7 +146,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,7 +442,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -454,10 +455,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,13 +544,45 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.00595</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-0.0515</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-0.00121</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.06E-005</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>4.59E-005</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -562,10 +595,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,13 +684,45 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.00451</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-0.0425</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.00381</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.00891</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-0.00121</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.06E-005</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>4.59E-005</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -670,10 +735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -759,13 +824,45 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.00451</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-0.0285</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.00361</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.00922</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-0.00121</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.06E-005</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>4.59E-005</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inputs/lumped_mass.xlsx
+++ b/inputs/lumped_mass.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="centre_pod" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="L_inboard_pod" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="R_inboard_pod" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="L_outboard_pod" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="R_outboard_pod" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Notes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="L_inboard_pod" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="R_inboard_pod" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="L_outboard_pod" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="R_outboard_pod" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="15">
   <si>
     <t xml:space="preserve">Lumped Mass</t>
   </si>
@@ -66,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">[kgm2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This file has the symmetric lumped masses</t>
   </si>
 </sst>
 </file>
@@ -177,8 +181,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A4:J4 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,16 +273,18 @@
         <v>3.29</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-0.00067</v>
+        <f aca="false">-0.00067*0</f>
+        <v>-0</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.054</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0915</v>
+        <v>-0.0815</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0202</v>
+        <f aca="false">F4+G4</f>
+        <v>0.01787</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.00327</v>
@@ -315,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A4:J4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,7 +334,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -336,109 +342,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0.00355</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>-0.0445</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.00261</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>-0.00121</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1.06E-005</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>4.59E-005</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -458,7 +365,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,7 +456,7 @@
         <v>0.959</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.00595</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.07</v>
@@ -558,7 +465,8 @@
         <v>-0.0515</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.013</v>
+        <f aca="false">F4+G4</f>
+        <v>0.01176</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.00156</v>
@@ -598,7 +506,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,25 +594,26 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1.265</v>
+        <v>0.959</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.00451</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.084</v>
+        <v>0.07</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0425</v>
+        <v>-0.0515</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0173</v>
+        <f aca="false">F4+G4</f>
+        <v>0.01176</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.00381</v>
+        <v>0.00156</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.00891</v>
+        <v>0.0102</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>-0.00121</v>
@@ -737,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -826,10 +735,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
+        <f aca="false">1.324</f>
         <v>1.324</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.00451</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.087</v>
@@ -838,7 +748,150 @@
         <v>-0.0285</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0117</v>
+        <f aca="false">F4+G4</f>
+        <v>0.01283</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.00361</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.00922</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>-0.00121</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.06E-005</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>4.59E-005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <f aca="false">1.324</f>
+        <v>1.324</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-0.0285</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <f aca="false">F4+G4</f>
+        <v>0.01283</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.00361</v>

--- a/inputs/lumped_mass.xlsx
+++ b/inputs/lumped_mass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="centre_pod" sheetId="1" state="visible" r:id="rId2"/>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">[kgm2]</t>
   </si>
   <si>
-    <t xml:space="preserve">This file has the symmetric lumped masses</t>
+    <t xml:space="preserve">This file has the non symmetric lumped masses</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +160,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -182,7 +186,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A4:J4 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,7 +328,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A4:J4 A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,15 +337,15 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -365,7 +369,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,26 +457,26 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>0.959</v>
+        <v>0.989</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.07</v>
+        <v>0.069</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0515</v>
+        <v>-0.0445</v>
       </c>
       <c r="E4" s="3" t="n">
         <f aca="false">F4+G4</f>
-        <v>0.01176</v>
+        <v>0.01611</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.00156</v>
+        <v>0.00261</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.0102</v>
+        <v>0.0135</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>-0.00121</v>
@@ -506,7 +510,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -735,27 +739,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <f aca="false">1.324</f>
-        <v>1.324</v>
+        <f aca="false">1.265</f>
+        <v>1.265</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.087</v>
+        <v>0.084</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0285</v>
+        <v>-0.0425</v>
       </c>
       <c r="E4" s="3" t="n">
         <f aca="false">F4+G4</f>
-        <v>0.01283</v>
+        <v>0.01272</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.00361</v>
+        <v>0.00381</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.00922</v>
+        <v>0.00891</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>-0.00121</v>
@@ -788,8 +792,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inputs/lumped_mass.xlsx
+++ b/inputs/lumped_mass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfonsodelcarre/run/um-xhale/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ae-flutter/run/2019IFASD/Patricia_xhale/UM-xhale/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A1143F-B490-6947-B1B7-B84956991135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3677F-0264-1A4D-A051-FE74B4C08266}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="21220" windowHeight="13120" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="25100" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="centre_pod" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -109,16 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -447,21 +456,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -502,28 +511,28 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -540,22 +549,22 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.15E-3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
@@ -569,25 +578,26 @@
       <c r="C5">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="D5">
-        <v>7.5200000000000003E-2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <f>-0.184/2 + 0.0752</f>
+        <v>-1.6799999999999995E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>2.32E-4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>2.27E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>2.82E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
@@ -640,7 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -648,15 +660,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -675,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -685,21 +697,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -740,33 +752,34 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
+        <f>0.548</f>
         <v>0.54800000000000004</v>
       </c>
       <c r="B4">
@@ -778,22 +791,22 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
@@ -807,25 +820,26 @@
       <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="D5">
-        <v>7.8146999999999994E-2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <f>-0.184/2 +0.078147</f>
+        <v>-1.3853000000000004E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>-1.2099999999999999E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1.06E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4.6E-5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>8.4799999999999997E-3</v>
       </c>
     </row>
@@ -878,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -888,21 +902,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -943,28 +957,28 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -981,22 +995,22 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
@@ -1010,25 +1024,26 @@
       <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="D5">
-        <v>7.8146999999999994E-2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <f>-0.184/2 +0.078147</f>
+        <v>-1.3853000000000004E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>-1.2099999999999999E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1.06E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4.6E-5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>8.4799999999999997E-3</v>
       </c>
     </row>
@@ -1081,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1091,21 +1106,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1146,28 +1161,28 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1184,22 +1199,22 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
@@ -1213,25 +1228,26 @@
       <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="D5">
-        <v>7.8146999999999994E-2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <f>-0.184/2 +0.078147</f>
+        <v>-1.3853000000000004E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>-1.2099999999999999E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1.06E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4.6E-5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>8.4799999999999997E-3</v>
       </c>
     </row>
@@ -1284,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1294,21 +1310,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1349,28 +1365,28 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1382,27 +1398,27 @@
         <v>-0.01</v>
       </c>
       <c r="C4">
-        <v>9.4100000000000003E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>8.8999999999999995E-4</v>
       </c>
     </row>
@@ -1416,25 +1432,26 @@
       <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="D5">
-        <v>7.8146999999999994E-2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <f>-0.184/2 +0.078147</f>
+        <v>-1.3853000000000004E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>-1.2099999999999999E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1.06E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>3.2100000000000002E-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4.6E-5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>8.4799999999999997E-3</v>
       </c>
     </row>
